--- a/excel/Propuesta Sistema control Distribuidores.xlsx
+++ b/excel/Propuesta Sistema control Distribuidores.xlsx
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:H96"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,13 +989,13 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>23</v>
@@ -1011,7 +1011,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -1019,7 +1019,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>26</v>
@@ -1035,13 +1035,13 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>28</v>
@@ -1057,7 +1057,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>29</v>
@@ -1065,7 +1065,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>30</v>
@@ -1073,7 +1073,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>31</v>
@@ -1081,7 +1081,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>33</v>
@@ -1089,7 +1089,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>34</v>
@@ -1097,19 +1097,30 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F49" t="s">
@@ -1117,81 +1128,143 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E52" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E59" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>

--- a/excel/Propuesta Sistema control Distribuidores.xlsx
+++ b/excel/Propuesta Sistema control Distribuidores.xlsx
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:F64"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G95" sqref="A88:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,219 +1444,391 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F88" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F89" t="s">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F90" t="s">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F91" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F92" t="s">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F93" t="s">
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">

--- a/excel/Propuesta Sistema control Distribuidores.xlsx
+++ b/excel/Propuesta Sistema control Distribuidores.xlsx
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G95" sqref="A88:G95"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C138" sqref="A136:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,24 +1549,40 @@
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="4"/>
+      <c r="B100" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -1883,19 +1899,25 @@
       <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
